--- a/T3Glossary/files/GlosarioT3.xlsx
+++ b/T3Glossary/files/GlosarioT3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\T3Glossary\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\T3Glossary\T3Glossary\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861A97E2-3551-4081-8748-4453305CF32B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DA85B8-A99E-489B-BD6F-C9343DC9F4A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="766">
   <si>
     <t>english</t>
   </si>
@@ -2377,6 +2377,9 @@
   </si>
   <si>
     <t>Retroalimentación. Devolución.</t>
+  </si>
+  <si>
+    <t>Un conjunto de cambios propuestos a un repositorio de GitHub que pueden revisarse, actualizarse y, finalmente, agregarse al repositorio.</t>
   </si>
 </sst>
 </file>
@@ -6198,8 +6201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A97E1CC-254F-4217-80A2-D2F4A8A53599}">
   <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8972,7 +8975,7 @@
         <v>594</v>
       </c>
       <c r="F109" t="s">
-        <v>470</v>
+        <v>765</v>
       </c>
       <c r="I109" t="s">
         <v>634</v>
